--- a/rhla_analysis/rhla1_6_zipf_result/k1.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k1.xlsx
@@ -457,49 +457,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4510056699877754</v>
+        <v>0.4510056699877767</v>
       </c>
       <c r="B2" t="n">
-        <v>5.871354165594407</v>
+        <v>5.871354165594408</v>
       </c>
       <c r="C2" t="n">
         <v>0.03122878479293958</v>
       </c>
       <c r="D2" t="n">
-        <v>13.01835998149103</v>
+        <v>13.018359981491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2709791060241035</v>
+        <v>0.2709791060241031</v>
       </c>
       <c r="B3" t="n">
-        <v>2.724962841194511</v>
+        <v>2.72496284119451</v>
       </c>
       <c r="C3" t="n">
         <v>0.02715546503733876</v>
       </c>
       <c r="D3" t="n">
-        <v>10.05598874826949</v>
+        <v>10.05598874826951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04870327823720288</v>
+        <v>0.04870327823720302</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9807664515407175</v>
+        <v>0.9807664515407176</v>
       </c>
       <c r="C4" t="n">
         <v>0.02953156822810591</v>
       </c>
       <c r="D4" t="n">
-        <v>20.13758594984149</v>
+        <v>20.13758594984144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3889865431758543</v>
+        <v>0.3889865431758562</v>
       </c>
       <c r="B5" t="n">
         <v>5.211499642130117</v>
@@ -508,12 +508,12 @@
         <v>0.04854039375424304</v>
       </c>
       <c r="D5" t="n">
-        <v>13.39763478597789</v>
+        <v>13.39763478597783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1896676881797734</v>
+        <v>0.1896676881797744</v>
       </c>
       <c r="B6" t="n">
         <v>5.714781893175057</v>
@@ -522,12 +522,12 @@
         <v>0.04887983706720977</v>
       </c>
       <c r="D6" t="n">
-        <v>30.13049796736276</v>
+        <v>30.1304979673626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1697986227681343</v>
+        <v>0.1697986227681341</v>
       </c>
       <c r="B7" t="n">
         <v>5.872360536072085</v>
@@ -536,26 +536,26 @@
         <v>0.0461642905634759</v>
       </c>
       <c r="D7" t="n">
-        <v>34.58426482110511</v>
+        <v>34.58426482110515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1491178869057825</v>
+        <v>0.1491178869057823</v>
       </c>
       <c r="B8" t="n">
-        <v>5.337039294245706</v>
+        <v>5.337039294245707</v>
       </c>
       <c r="C8" t="n">
         <v>0.07196198234894773</v>
       </c>
       <c r="D8" t="n">
-        <v>35.7907384887892</v>
+        <v>35.79073848878925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1005581089863846</v>
+        <v>0.1005581089863849</v>
       </c>
       <c r="B9" t="n">
         <v>2.179696626411932</v>
@@ -564,12 +564,12 @@
         <v>0.02545824847250509</v>
       </c>
       <c r="D9" t="n">
-        <v>21.67599061262238</v>
+        <v>21.67599061262234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.221530065424272</v>
+        <v>1.221530065424266</v>
       </c>
       <c r="B10" t="n">
         <v>18.08224573731592</v>
@@ -578,12 +578,12 @@
         <v>0.0285132382892057</v>
       </c>
       <c r="D10" t="n">
-        <v>14.80294775309967</v>
+        <v>14.80294775309974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1822988341004472</v>
+        <v>0.1822988341004476</v>
       </c>
       <c r="B11" t="n">
         <v>5.12094982702775</v>
@@ -592,7 +592,7 @@
         <v>0.04480651731160896</v>
       </c>
       <c r="D11" t="n">
-        <v>28.09096312819034</v>
+        <v>28.09096312819028</v>
       </c>
     </row>
   </sheetData>
